--- a/Assets/AIPrefs/AIActions.xlsx
+++ b/Assets/AIPrefs/AIActions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23895" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="ActTruman" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,11 +72,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,7 +406,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -457,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -471,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -491,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -508,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -525,16 +530,17 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -545,7 +551,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -615,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -635,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -652,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -669,16 +675,17 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -689,7 +696,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -759,13 +766,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -779,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -796,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -813,16 +820,17 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -832,7 +840,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -871,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -888,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -902,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -922,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -939,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -956,16 +964,17 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -975,7 +984,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1014,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1031,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1045,13 +1054,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1065,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1082,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1099,16 +1108,17 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1118,7 +1128,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1157,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1188,13 +1198,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1208,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1225,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1242,16 +1252,17 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1261,7 +1272,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1300,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1331,13 +1342,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1351,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1368,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1385,16 +1396,17 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1404,7 +1416,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1443,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1460,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1474,13 +1486,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1494,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1511,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1528,16 +1540,17 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/AIPrefs/AIActions.xlsx
+++ b/Assets/AIPrefs/AIActions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270"/>
@@ -16,7 +16,7 @@
     <sheet name="ActBrezhnev" sheetId="7" r:id="rId7"/>
     <sheet name="ActGorbachev" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -111,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -119,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,7 +229,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -462,13 +462,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -496,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -513,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +551,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +696,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +840,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +984,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1091,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/AIPrefs/AIActions.xlsx
+++ b/Assets/AIPrefs/AIActions.xlsx
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -496,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -513,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -551,7 +551,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -696,7 +696,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -840,7 +840,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -984,7 +984,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1091,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1472,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/Assets/AIPrefs/AIActions.xlsx
+++ b/Assets/AIPrefs/AIActions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ActTruman" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
